--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaishakvk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welcome\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FE046-AE14-4A58-8507-0162333D5727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,15 +27,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="934c3e82-1570-4eae-91a3-18ad1c3f9b39" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="934c3e82-1570-4eae-91a3-18ad1c3f9b39" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\vaishakvk\Desktop\934c3e82-1570-4eae-91a3-18ad1c3f9b39.xml" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="181">
   <si>
     <t>REPORT_DATE</t>
   </si>
@@ -581,7 +583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,15 +593,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -607,20 +615,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -680,55 +725,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P70" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:P70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P70" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:P70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" uniqueName="REPORT_DATE" name="REPORT_DATE">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="REPORT_DATE" name="REPORT_DATE">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_1/REPORT_DATE" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="RECEIVABLES_TRX_ID" name="RECEIVABLES_TRX_ID">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="RECEIVABLES_TRX_ID" name="RECEIVABLES_TRX_ID">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_1/RECEIVABLES_TRX_ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="CODE_COMBINATION_ID" name="CODE_COMBINATION_ID">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="CODE_COMBINATION_ID" name="CODE_COMBINATION_ID">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_1/CODE_COMBINATION_ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="SET_OF_BOOKS_ID" name="SET_OF_BOOKS_ID">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="SET_OF_BOOKS_ID" name="SET_OF_BOOKS_ID">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_1/SET_OF_BOOKS_ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="NAME" name="NAME">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="NAME" name="NAME">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_1/NAME" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ORG_ID" name="ORG_ID">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ORG_ID" name="ORG_ID">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_1/ORG_ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ATTRIBUTE2" name="ATTRIBUTE2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ATTRIBUTE2" name="ATTRIBUTE2">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_1/ATTRIBUTE2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ATTRIBUTE1" name="ATTRIBUTE1">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ATTRIBUTE1" name="ATTRIBUTE1">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_1/ATTRIBUTE1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="CUSTOMER_TRX_ID" name="CUSTOMER_TRX_ID">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="CUSTOMER_TRX_ID" name="CUSTOMER_TRX_ID" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_2/CUSTOMER_TRX_ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="PAYMENT_SCHEDULE_ID" name="PAYMENT_SCHEDULE_ID">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="PAYMENT_SCHEDULE_ID" name="PAYMENT_SCHEDULE_ID">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_2/PAYMENT_SCHEDULE_ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="BATCH_SOURCE_SEQ_ID" name="BATCH_SOURCE_SEQ_ID">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="BATCH_SOURCE_SEQ_ID" name="BATCH_SOURCE_SEQ_ID">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_2/BATCH_SOURCE_SEQ_ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="CUST_TRX_TYPE_SEQ_ID" name="CUST_TRX_TYPE_SEQ_ID">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="CUST_TRX_TYPE_SEQ_ID" name="CUST_TRX_TYPE_SEQ_ID">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_2/CUST_TRX_TYPE_SEQ_ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="INVOICE_CURRENCY_CODE" name="INVOICE_CURRENCY_CODE">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="INVOICE_CURRENCY_CODE" name="INVOICE_CURRENCY_CODE">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_2/INVOICE_CURRENCY_CODE" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="TRX_NUMBER" name="TRX_NUMBER">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="TRX_NUMBER" name="TRX_NUMBER">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_2/TRX_NUMBER" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="REPORT_DATE" name="REPORT_DATE2">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="REPORT_DATE" name="REPORT_DATE2">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_2/REPORT_DATE" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="TRX_DATE" name="TRX_DATE">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="TRX_DATE" name="TRX_DATE">
       <xmlColumnPr mapId="1" xpath="/DATA_DS/G_2/TRX_DATE" xmlDataType="dateTime"/>
     </tableColumn>
   </tableColumns>
@@ -998,10 +1043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I49" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1094,6 +1141,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="3"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1120,6 +1168,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
+      <c r="I3" s="3"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1148,6 +1197,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="1"/>
+      <c r="I4" s="3"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1174,6 +1224,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1200,6 +1251,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1226,6 +1278,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1256,6 +1309,7 @@
       <c r="H8" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="I8" s="3"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1286,6 +1340,7 @@
       <c r="H9" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="I9" s="3"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1316,6 +1371,7 @@
       <c r="H10" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="I10" s="3"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1342,6 +1398,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1368,6 +1425,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1394,6 +1452,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+      <c r="I13" s="3"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1420,6 +1479,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
+      <c r="I14" s="3"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1446,6 +1506,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1472,6 +1533,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1498,6 +1560,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
+      <c r="I17" s="3"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1524,6 +1587,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1550,6 +1614,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
+      <c r="I19" s="3"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1575,6 +1640,7 @@
       <c r="H20" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="I20" s="3"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1605,6 +1671,7 @@
       <c r="H21" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="I21" s="3"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1635,6 +1702,7 @@
       <c r="H22" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="I22" s="3"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1665,6 +1733,7 @@
       <c r="H23" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I23" s="3"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1695,6 +1764,7 @@
       <c r="H24" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="I24" s="3"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1725,6 +1795,7 @@
       <c r="H25" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="I25" s="3"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1755,6 +1826,7 @@
       <c r="H26" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="I26" s="3"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1785,6 +1857,7 @@
       <c r="H27" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="I27" s="3"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1815,6 +1888,7 @@
       <c r="H28" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="I28" s="3"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1845,6 +1919,7 @@
       <c r="H29" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="I29" s="3"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1875,6 +1950,7 @@
       <c r="H30" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="I30" s="3"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -1905,6 +1981,7 @@
       <c r="H31" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="I31" s="3"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -1935,6 +2012,7 @@
       <c r="H32" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="I32" s="3"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -1965,6 +2043,7 @@
       <c r="H33" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="I33" s="3"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -1995,6 +2074,7 @@
       <c r="H34" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="I34" s="3"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2025,6 +2105,7 @@
       <c r="H35" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="I35" s="3"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2055,6 +2136,7 @@
       <c r="H36" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="I36" s="3"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2085,6 +2167,7 @@
       <c r="H37" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="I37" s="3"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2115,6 +2198,7 @@
       <c r="H38" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="I38" s="3"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2145,6 +2229,7 @@
       <c r="H39" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="I39" s="3"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2175,6 +2260,7 @@
       <c r="H40" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="I40" s="3"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2201,6 +2287,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
+      <c r="I41" s="3"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2231,6 +2318,7 @@
       <c r="H42" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="I42" s="3"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2261,6 +2349,7 @@
       <c r="H43" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="I43" s="3"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2291,6 +2380,7 @@
       <c r="H44" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="I44" s="3"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2321,6 +2411,7 @@
       <c r="H45" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="I45" s="3"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2351,6 +2442,7 @@
       <c r="H46" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="I46" s="3"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -2381,6 +2473,7 @@
       <c r="H47" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="I47" s="3"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -2411,6 +2504,7 @@
       <c r="H48" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="I48" s="3"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -2441,6 +2535,7 @@
       <c r="H49" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="I49" s="3"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -2471,6 +2566,7 @@
       <c r="H50" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="I50" s="3"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -2501,6 +2597,7 @@
       <c r="H51" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="I51" s="3"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -2531,6 +2628,7 @@
       <c r="H52" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="I52" s="3"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -2561,6 +2659,7 @@
       <c r="H53" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="I53" s="3"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -2591,6 +2690,7 @@
       <c r="H54" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="I54" s="3"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -2617,6 +2717,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
+      <c r="I55" s="3"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -2647,6 +2748,7 @@
       <c r="H56" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="I56" s="3"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -2677,6 +2779,7 @@
       <c r="H57" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="I57" s="3"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2707,6 +2810,7 @@
       <c r="H58" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="I58" s="3"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -2737,6 +2841,7 @@
       <c r="H59" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="I59" s="3"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2767,6 +2872,7 @@
       <c r="H60" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="I60" s="3"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -2797,6 +2903,7 @@
       <c r="H61" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="I61" s="3"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -2827,6 +2934,7 @@
       <c r="H62" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="I62" s="3"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -2857,6 +2965,7 @@
       <c r="H63" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="I63" s="3"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -2883,6 +2992,7 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
+      <c r="I64" s="3"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -2893,7 +3003,7 @@
       <c r="E65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>300000022667428</v>
       </c>
       <c r="J65">
@@ -2923,7 +3033,7 @@
       <c r="E66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>300000022667439</v>
       </c>
       <c r="J66">
@@ -2953,7 +3063,7 @@
       <c r="E67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>300000022667452</v>
       </c>
       <c r="J67">
@@ -2983,7 +3093,7 @@
       <c r="E68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>300000022667463</v>
       </c>
       <c r="J68">
@@ -3013,7 +3123,7 @@
       <c r="E69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>300000022667476</v>
       </c>
       <c r="J69">
@@ -3043,7 +3153,7 @@
       <c r="E70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>300000022667487</v>
       </c>
       <c r="J70">
@@ -3070,18 +3180,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,28 +3245,123 @@
         <v>300000022431601</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EC4085-2177-4980-879B-BE207AF3B298}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7">
+        <v>432001</v>
+      </c>
+      <c r="C2" s="10">
+        <v>433005</v>
+      </c>
+      <c r="D2" s="10">
+        <v>432002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9">
+        <v>433001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>433004</v>
+      </c>
+      <c r="D3" s="6">
+        <v>433006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9">
+        <v>433002</v>
+      </c>
+      <c r="C4" s="6">
+        <v>433003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>433008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>